--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_20_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77194.22189692044</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77194.22189692044</v>
+        <v>5151068.340509111</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960182038.2233864</v>
+        <v>37017436.2421945</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11365.4122627517</v>
+        <v>1041577.38700607</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20769.03834049475</v>
+        <v>1743399.637126088</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30164.51025690711</v>
+        <v>2445221.887246107</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39757.8640841123</v>
+        <v>3146340.713715336</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49351.21496099974</v>
+        <v>3847459.540184564</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58944.56878820491</v>
+        <v>4548578.366653793</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68537.86956749232</v>
+        <v>5249697.193123017</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78131.22044437977</v>
+        <v>5950816.019592242</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87724.57427158496</v>
+        <v>6651934.846061466</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97317.92809879016</v>
+        <v>7353053.672530691</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106911.2701780983</v>
+        <v>8054172.498999916</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116504.6240053035</v>
+        <v>8755291.325469146</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>126097.9778325087</v>
+        <v>9456410.151938381</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135691.3316597139</v>
+        <v>10157528.97840762</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>145284.6854869192</v>
+        <v>10858647.80487685</v>
       </c>
     </row>
   </sheetData>
